--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10744,26 +10744,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,14 +22256,10 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22271,11 +22267,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22280,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,10 +22300,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -14612,7 +14612,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10744,26 +10744,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,10 +22256,14 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22267,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22280,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,14 +22304,10 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10744,26 +10744,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,14 +22256,10 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22271,11 +22267,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22280,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,10 +22300,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -2468,7 +2468,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,10 +22256,14 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22267,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22280,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,14 +22304,10 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,14 +22256,10 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22271,11 +22267,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22280,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,10 +22300,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,10 +22256,14 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22267,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22280,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,14 +22304,10 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,14 +22256,10 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22271,11 +22267,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22280,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,10 +22300,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10744,26 +10744,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,10 +22256,14 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22267,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22280,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,14 +22304,10 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10744,26 +10744,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,14 +22256,10 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22271,11 +22267,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22280,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,10 +22300,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10744,26 +10744,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,10 +22256,14 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22267,11 +22271,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22280,12 +22284,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22300,14 +22304,10 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -4148,7 +4148,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,11 +7735,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,16 +10034,16 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10744,26 +10744,26 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10811,7 +10811,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12823,11 +12823,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
@@ -12836,12 +12836,12 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -14119,11 +14119,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15554,16 +15554,16 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,12 +20306,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F416" t="n">
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20359,11 +20359,11 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -22256,14 +22256,10 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22271,11 +22267,11 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22284,12 +22280,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22304,10 +22300,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22920,7 +22920,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22930,16 +22930,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22948,12 +22948,12 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23920,7 +23920,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23930,16 +23930,16 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F492" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G492" t="inlineStr">
         <is>
@@ -23948,12 +23948,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10792,26 +10792,26 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10859,7 +10859,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,12 +20354,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20407,11 +20407,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22304,10 +22304,14 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22315,11 +22319,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22328,12 +22332,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22348,14 +22352,10 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22363,11 +22363,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22376,12 +22376,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,11 +7783,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10082,16 +10082,16 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10792,26 +10792,26 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10859,7 +10859,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -12856,7 +12856,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12871,11 +12871,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
@@ -12884,12 +12884,12 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -14167,11 +14167,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -15602,16 +15602,16 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G318" t="inlineStr">
         <is>
@@ -15620,12 +15620,12 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,12 +20354,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20407,11 +20407,11 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22304,14 +22304,10 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22319,11 +22315,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22332,12 +22328,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22352,10 +22348,14 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22363,11 +22363,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22376,12 +22376,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22968,7 +22968,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22978,16 +22978,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -22996,12 +22996,12 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23978,16 +23978,16 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F493" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G493" t="inlineStr">
         <is>
@@ -23996,12 +23996,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/04/2022</t>
+          <t>11/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,12 +20402,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -22352,10 +22352,14 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22363,11 +22367,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22376,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,14 +22400,10 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,12 +20402,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -22352,14 +22352,10 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22367,11 +22363,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22380,12 +22376,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,10 +22396,14 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>EMPRESA NACIONAL DE MINERIA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,12 +20402,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -22352,10 +22352,14 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22363,11 +22367,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22376,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,14 +22400,10 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -12919,7 +12919,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -15079,7 +15079,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -21983,7 +21983,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F451" t="n">
@@ -22079,7 +22079,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F453" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -2036,7 +2036,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,12 +20402,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -22352,10 +22352,14 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22363,11 +22367,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22376,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,14 +22400,10 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,12 +20402,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -22352,14 +22352,10 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22367,11 +22363,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22380,12 +22376,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22400,10 +22396,14 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10130,16 +10130,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10183,11 +10183,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10840,26 +10840,26 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -12904,7 +12904,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12919,11 +12919,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -14215,11 +14215,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -15650,16 +15650,16 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G319" t="inlineStr">
         <is>
@@ -15668,12 +15668,12 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,12 +20402,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20455,11 +20455,11 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20569,7 +20569,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -22352,10 +22352,14 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22363,11 +22367,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22376,12 +22380,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22396,14 +22400,10 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23026,16 +23026,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23044,12 +23044,12 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -24016,7 +24016,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24026,16 +24026,16 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F494" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G494" t="inlineStr">
         <is>
@@ -24044,12 +24044,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/06/2022</t>
+          <t>10/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22400,10 +22400,14 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22415,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,14 +22448,10 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22459,11 +22459,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22472,12 +22472,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>Compañia General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22400,14 +22400,10 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22415,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22428,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,10 +22444,14 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22459,11 +22459,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22472,12 +22472,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CALES INACESA S.A.</t>
+          <t>Inacal S.A</t>
         </is>
       </c>
       <c r="F428" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22400,10 +22400,14 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22415,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,14 +22448,10 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22459,11 +22459,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22472,12 +22472,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -2564,7 +2564,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22400,14 +22400,10 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22415,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22428,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,10 +22444,14 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22459,11 +22459,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22472,12 +22472,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22400,10 +22400,14 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22411,11 +22415,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22424,12 +22428,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22444,14 +22448,10 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22459,11 +22459,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22472,12 +22472,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,11 +7879,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10178,16 +10178,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10196,12 +10196,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10231,11 +10231,11 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10888,26 +10888,26 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10955,7 +10955,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12952,7 +12952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12967,11 +12967,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -14263,11 +14263,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15698,16 +15698,16 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17138,16 +17138,16 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17156,12 +17156,12 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F419" t="n">
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20503,11 +20503,11 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22400,14 +22400,10 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22415,11 +22411,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22428,12 +22424,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22448,10 +22444,14 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22459,11 +22459,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22472,12 +22472,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23064,7 +23064,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23074,16 +23074,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23092,12 +23092,12 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -24064,7 +24064,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24074,16 +24074,16 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24092,12 +24092,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,26 +11032,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,12 +20498,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -22448,10 +22448,14 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22459,11 +22463,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22472,12 +22476,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22492,14 +22496,10 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22507,11 +22507,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22520,12 +22520,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23170,16 +23170,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23188,12 +23188,12 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24170,16 +24170,16 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24188,12 +24188,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,11 +7927,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10226,16 +10226,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10244,12 +10244,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10936,26 +10936,26 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -11003,7 +11003,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,26 +11032,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -13015,11 +13015,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -14311,11 +14311,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,12 +20498,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F420" t="n">
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20551,11 +20551,11 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -22448,14 +22448,10 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22463,11 +22459,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22476,12 +22472,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22496,10 +22492,14 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D462" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22507,11 +22507,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22520,12 +22520,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23122,16 +23122,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23140,12 +23140,12 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23170,16 +23170,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23188,12 +23188,12 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -24112,7 +24112,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24122,16 +24122,16 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24140,12 +24140,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24170,16 +24170,16 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24188,12 +24188,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>19/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -10807,7 +10807,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Suez Medioambiente Chile S.A.</t>
+          <t>AGRODESAL SpA</t>
         </is>
       </c>
       <c r="F218" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa Concesionaria de Servicios Sanitarios S.A</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F160" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>GR Algarrobo SpA</t>
+          <t>GR Conguillio SpA.</t>
         </is>
       </c>
       <c r="F50" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -14104,26 +14104,26 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,26 +14152,26 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,12 +20546,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -22496,10 +22496,14 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D462" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22507,11 +22511,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22520,12 +22524,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22540,14 +22544,10 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22555,11 +22555,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22568,12 +22568,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23170,16 +23170,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23188,12 +23188,12 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24170,16 +24170,16 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24188,12 +24188,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/09/2022</t>
+          <t>09/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -14104,26 +14104,26 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,26 +14152,26 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,12 +20546,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F421" t="n">
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -22496,14 +22496,10 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22511,11 +22507,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22520,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22544,10 +22540,14 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22555,11 +22555,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22568,12 +22568,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23170,16 +23170,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23188,12 +23188,12 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24170,16 +24170,16 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24188,12 +24188,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,11 +7975,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10274,16 +10274,16 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -10292,12 +10292,12 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10327,11 +10327,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10984,26 +10984,26 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11051,7 +11051,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -14104,26 +14104,26 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14152,26 +14152,26 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -14359,11 +14359,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15794,16 +15794,16 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,12 +20546,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F421" t="n">
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20599,11 +20599,11 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -22496,14 +22496,10 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22511,11 +22507,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22524,12 +22520,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22544,10 +22540,14 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22555,11 +22555,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22568,12 +22568,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23160,7 +23160,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23170,16 +23170,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23188,12 +23188,12 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24170,16 +24170,16 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24188,12 +24188,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11032,26 +11032,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,12 +20594,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22544,14 +22544,10 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22559,11 +22555,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22568,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,10 +22588,14 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22603,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22616,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11032,26 +11032,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,12 +20594,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22544,10 +22544,14 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22555,11 +22559,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22568,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,14 +22592,10 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22603,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22616,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -18151,7 +18151,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Santa Fe Mining</t>
+          <t>Zhongli Mining SpA</t>
         </is>
       </c>
       <c r="F371" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/09/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11032,26 +11032,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,12 +20594,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22544,10 +22544,14 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22555,11 +22559,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22568,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,14 +22592,10 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22603,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22616,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -14152,26 +14152,26 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,26 +14200,26 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11032,26 +11032,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14152,26 +14152,26 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,26 +14200,26 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,12 +20594,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22544,14 +22544,10 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22559,11 +22555,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22572,12 +22568,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22592,10 +22588,14 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22603,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22616,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,11 +8023,11 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10322,16 +10322,16 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10340,12 +10340,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10375,11 +10375,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -11032,26 +11032,26 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11099,7 +11099,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14152,26 +14152,26 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14200,26 +14200,26 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -14407,11 +14407,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
@@ -14425,7 +14425,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15842,16 +15842,16 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,12 +20594,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,11 +20647,11 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -22544,10 +22544,14 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D463" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22555,11 +22559,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22568,12 +22572,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22588,14 +22592,10 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22603,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22616,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23218,16 +23218,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23236,12 +23236,12 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24218,16 +24218,16 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24236,12 +24236,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,12 +20642,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -22592,14 +22592,10 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22607,11 +22603,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22616,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,10 +22636,14 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22651,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22664,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,12 +20642,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -22592,10 +22592,14 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22607,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,14 +22640,10 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22651,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22664,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/10/2022</t>
+          <t>08/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14200,26 +14200,26 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,26 +14248,26 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,12 +20642,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -22592,10 +22592,14 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22607,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,14 +22640,10 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22651,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22664,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14200,26 +14200,26 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,26 +14248,26 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,12 +20642,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -22592,14 +22592,10 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22607,11 +22603,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22620,12 +22616,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22640,10 +22636,14 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22651,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22664,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -22079,7 +22079,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F453" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -22983,7 +22983,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F472" t="n">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,11 +8071,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10370,16 +10370,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10423,11 +10423,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10514,16 +10514,16 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10532,12 +10532,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11080,26 +11080,26 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -14200,26 +14200,26 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -14248,26 +14248,26 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -14455,11 +14455,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15890,16 +15890,16 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,12 +20642,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,11 +20695,11 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -22592,10 +22592,14 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D464" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22603,11 +22607,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22616,12 +22620,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22636,14 +22640,10 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22651,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22664,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23256,7 +23256,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23266,16 +23266,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23284,12 +23284,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24266,16 +24266,16 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24284,12 +24284,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,26 +11224,26 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22640,14 +22640,10 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22655,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22668,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,10 +22684,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22699,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22712,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,26 +11224,26 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22640,10 +22640,14 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22651,11 +22655,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22664,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,14 +22688,10 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22699,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22712,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/02/2023</t>
+          <t>02/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,26 +11224,26 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22640,14 +22640,10 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22655,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22668,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,10 +22684,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22699,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22712,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,26 +11224,26 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14248,26 +14248,26 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,26 +14296,26 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22640,10 +22640,14 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22651,11 +22655,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22664,12 +22668,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22684,14 +22688,10 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22699,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22712,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,11 +8119,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10418,16 +10418,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10436,12 +10436,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10471,11 +10471,11 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10562,16 +10562,16 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10580,12 +10580,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -11128,26 +11128,26 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,26 +11224,26 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>PTriles ácidos "Geolaquim"</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Soc. laboratorio geologico atacama Ltda.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PTriles ácidos "Geolaquim"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Soc. laboratorio geologico atacama Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8360465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -14248,26 +14248,26 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Explotación Minera Oso Negro</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>90260</v>
+        <v>5250</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14296,26 +14296,26 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Explotación Minera Oso Negro</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>MINERA SAN FIERRO CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>5250</v>
+        <v>90260</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7309004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14503,11 +14503,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15938,16 +15938,16 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,11 +20743,11 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,11 +20839,11 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -22640,14 +22640,10 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22655,11 +22651,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22668,12 +22664,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22688,10 +22684,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22699,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22712,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23314,16 +23314,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23332,12 +23332,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24304,7 +24304,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24314,16 +24314,16 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24332,12 +24332,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,26 +11272,26 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,12 +20738,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,11 +20935,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22688,10 +22688,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22703,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,14 +22736,10 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22747,11 +22747,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22760,12 +22760,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23410,16 +23410,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23428,12 +23428,12 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,26 +11272,26 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,12 +20738,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,11 +20935,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22688,14 +22688,10 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22703,11 +22699,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22716,12 +22712,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22736,10 +22732,14 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D467" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22747,11 +22747,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22760,12 +22760,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23410,16 +23410,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23428,12 +23428,12 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Ilustre Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2023</t>
+          <t>29/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,26 +11272,26 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,12 +20738,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,11 +20935,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22688,10 +22688,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22703,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,14 +22736,10 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22747,11 +22747,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22760,12 +22760,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23410,16 +23410,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23428,12 +23428,12 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24352,7 +24352,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24362,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24380,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>219</v>
+        <v>100000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>100000</v>
+        <v>161000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>161000</v>
+        <v>202600</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>202600</v>
+        <v>219</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12500</v>
+        <v>460000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,26 +11272,26 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>460000</v>
+        <v>10000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15986,16 +15986,16 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera Atacama Kozan</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>AUMENTO DE CAPACIDAD DEL TRANQUE DE RELAVES EL GATO DE LA S.C.M. ATACAMA KOZAN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16034,16 +16034,16 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Sociedad Contractual Minera Atacama Kozan</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6153667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
+          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Norte Abierto SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>55000</v>
+        <v>5.2</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN PROYECTO MINERO CERRO CASALE</t>
+          <t>Sistema de Transmisión 220/110 kV Copayapu-Galleguillos</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Norte Abierto SpA</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>5.2</v>
+        <v>55000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5854754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5864424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
+          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>SHABU CORPORATION S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>5000</v>
+        <v>600</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Acido Sulfurico por Regiones II, III y IV</t>
+          <t>Poder de Compra, Procesamiento y Exportación de Minerales de Hierro</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>SHABU CORPORATION S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>600</v>
+        <v>5000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550316&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5546475&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,12 +20738,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Aprovechamiento de Acopios de Minerales de Hierro Cerro Negro Norte</t>
+          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,11 +20791,11 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Francisco Moraga Mollenhauer</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>¿SANEAMIENTO AMBIENTAL DE UN TRAMO DEL RÍO COPIAPÓ MEDIANTE TRASLADO DE RELAVES MINEROS PARA SU VALORIZACION COMO CONCENTRADO DE HIERRO¿</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Francisco Moraga Mollenhauer</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,11 +20887,11 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,11 +20935,11 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -22688,10 +22688,14 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Puerto Castilla</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr"/>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22699,11 +22703,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>OMX Operaciones Marítimas Ltda.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>300000</v>
+        <v>550</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22712,12 +22716,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22732,14 +22736,10 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Puerto Castilla</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -22747,11 +22747,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>OMX Operaciones Marítimas Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>550</v>
+        <v>300000</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22760,12 +22760,12 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3911288&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23362,16 +23362,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Agrosevilla Chile Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23380,12 +23380,12 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Balsas de Evaporación de RILES Agrosevilla Chile Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23410,16 +23410,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Agrosevilla Chile Ltda.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23428,12 +23428,12 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3515097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23687,7 +23687,11 @@
           <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr"/>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
       <c r="D487" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -24352,7 +24356,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RESIDUOS SÓLIDOS DOMICILIARIOS (RSD) PARA LA COMUNA DE COPIAPO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24362,16 +24366,16 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Copiapó</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24380,12 +24384,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3118839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Copiapó.xlsx
+++ b/data/Copiapó.xlsx
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
+          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ABC Solar 10 SpA</t>
+          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Centro de Almacenamiento y Distribución, de Explosivos y Accesorios</t>
+          <t>Línea de Transmisión Carrera Pinto - Campos del Sol Sur Oeste</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,11 +6391,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>FAMESA EXPLOSIVOS CHILE S.A.</t>
+          <t>ABC Solar 10 SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131020236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131014559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Bella Monica</t>
+          <t>Boulevard Alto Copiapó</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,11 +8167,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MSN SOLAR TRES SPA</t>
+          <t>Global Business Development SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>266000</v>
+        <v>184677</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Boulevard Alto Copiapó</t>
+          <t>Proyecto Bella Monica</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,11 +8215,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Global Business Development SpA</t>
+          <t>MSN SOLAR TRES SPA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>184677</v>
+        <v>266000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130051307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130077041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10466,16 +10466,16 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>100000</v>
+        <v>219</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -10484,12 +10484,12 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
+          <t>SOLAIREDIRECT GENERACION CARRERA PINTO</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10519,11 +10519,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
+          <t>SOLAIREDIRECT GENERACIÓN VI SPA</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>161000</v>
+        <v>100000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Sol de Varas</t>
+          <t>NUEVA PLANTA FOTOVOLTAICA CARRERA PINTO SOLAR</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10567,11 +10567,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Austrian Solar Chile Tres SpA</t>
+          <t>ENERGIAS RENOVABLES FOTONES DE CHILE SpA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>202600</v>
+        <v>161000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128950649&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Proyecto Fotovoltaico Sol de Varas</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10610,16 +10610,16 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Austrian Solar Chile Tres SpA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>219</v>
+        <v>202600</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10628,12 +10628,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -11176,26 +11176,26 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Candelaria 2030 - Continuidad Operacional</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Compañía Contractual Minera Candelaria</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>460000</v>
+        <v>12500</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,26 +11272,26 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Candelaria 2030 - Continuidad Operacional</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Compañía Contractual Minera Candelaria</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>10000</v>
+        <v>460000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128574332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Proyecto Solar San Andrés</t>
+          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>San Andrés SpA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>120500</v>
+        <v>500</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>IMPULSIÓN Y UTILIZACION DE SOLUCIONES ÁCIDAS PLANTA M.A MATTA, DE ENAMI</t>
+          <t>Proyecto Solar San Andrés</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Minería</t>
+          <t>San Andrés SpA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>500</v>
+        <v>120500</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7903518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7930463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificación Proyecto de Transporte de Ácido Sulfúrico a Granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7175200&amp;modo=ficha</t>
       